--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/13_Bartın_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/13_Bartın_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B20B5C78-8952-424C-92FD-8A12B14ECA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B51D14D0-01F4-4C08-81B9-F82914E3E8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{A67B797C-22C4-4020-A036-4ADFB1CF6206}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{67A8833D-3675-4ECD-81DC-55067E0691F7}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -857,14 +857,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{DAB8FF20-515D-4E7F-98CE-1820A97AD11C}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{B5BA5293-FB1A-40B7-B57D-6B36E1526F20}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{987FE8D4-E4B1-4490-8615-7976366E0E65}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{FE774A50-E994-4EFF-BD86-FD84D9F8978E}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{95A43238-6B1C-4F03-AE85-0E9D2D5AA9A9}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{7672AFF7-C21B-4C4F-A6C1-176CE77A869D}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{171C46C6-4F98-43CB-9EFF-31A74ABDC0CC}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{12DB3B31-4FF2-485D-8B9F-4315C9E36D7A}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{99E23C39-BCF4-45EC-B67D-EFF372F82036}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{898AA8F6-A2FF-474B-98E3-9524F6633295}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{7F85338C-23EB-4950-BA7E-04BAC5AA7D20}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{4F9EC8DC-0DF4-427B-93F1-4F250610E9EE}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{3C0397CC-9A92-4146-B277-0620A3460F4C}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{7B0416A8-223E-4077-B8AF-340D77AA71F4}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{93286896-66BD-4648-AB12-F982C631DFBF}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{14CF1500-6C05-4EDC-ACA4-0AA8971B1C33}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D106675F-FFCD-4A80-BE44-069BBA549DAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C588E8B5-883B-49DB-B9A6-521D643DF539}">
   <dimension ref="B1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2458,7 +2458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C37AB9-226C-4E77-A601-CD374630A72A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6B3F04-BF36-4A5A-B859-7C8D1815E0BF}">
   <dimension ref="B1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3682,7 +3682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC58A583-872E-4F09-A103-6EC47DEFB537}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8422C43-4A04-4344-99F3-A80C379EC57F}">
   <dimension ref="B1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4908,7 +4908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA294A7-780A-4250-BA3B-F8EF7C33468A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD855BBF-9F26-4706-B106-72EDCC2E856B}">
   <dimension ref="B1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6134,7 +6134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ED052E-A007-4EFC-B3F4-D1C2B72BC425}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC53FE3E-0B6A-4EBC-995B-CC72195354C6}">
   <dimension ref="B1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7348,7 +7348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CFB558-DC77-432E-8AD1-42A105CCD7E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70619B2-F3E2-4313-8E87-C2B1C3E17006}">
   <dimension ref="B1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
